--- a/03_time_report/Stundenzettel_Hiwis_Nazareth_2506.xlsx
+++ b/03_time_report/Stundenzettel_Hiwis_Nazareth_2506.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\Terril\Arduino Script\Arduino\03_time_report\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12705"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12710"/>
   </bookViews>
   <sheets>
     <sheet name="Hiwi-Stundenzettel" sheetId="1" r:id="rId1"/>
@@ -12,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Hiwi-Stundenzettel'!$A$1:$H$50</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
   <si>
     <t>Datum</t>
   </si>
@@ -280,17 +285,20 @@
   <si>
     <t>Diagram creation</t>
   </si>
+  <si>
+    <t>05.06.2025</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[hh]:mm"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -889,36 +897,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -966,27 +964,37 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1044,7 +1052,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1076,9 +1084,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1110,6 +1119,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1285,48 +1295,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F10" sqref="F10:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="6" customWidth="1"/>
-    <col min="2" max="3" width="10.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="1.140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="6"/>
-    <col min="10" max="10" width="11.5703125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" style="6" customWidth="1"/>
-    <col min="12" max="14" width="11.5703125" style="6"/>
+    <col min="1" max="1" width="9.81640625" style="6" customWidth="1"/>
+    <col min="2" max="3" width="10.1796875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="1.1796875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="23.26953125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="15.26953125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="11.54296875" style="6"/>
+    <col min="10" max="10" width="11.54296875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="23.54296875" style="6" customWidth="1"/>
+    <col min="12" max="14" width="11.54296875" style="6"/>
     <col min="15" max="15" width="23" style="6" customWidth="1"/>
-    <col min="16" max="16384" width="11.5703125" style="6"/>
+    <col min="16" max="16384" width="11.54296875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21.75">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="84"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="82"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:15" ht="6.75" customHeight="1">
+    <row r="2" spans="1:15" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -1336,35 +1346,35 @@
       <c r="G2" s="8"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:15" ht="18">
+    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="85"/>
       <c r="F3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="88" t="s">
+      <c r="G3" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="89"/>
+      <c r="H3" s="87"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
     </row>
-    <row r="4" spans="1:15" ht="18">
+    <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.4">
       <c r="A4" s="10"/>
       <c r="B4" s="13"/>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
       <c r="G4" s="40">
         <v>15</v>
       </c>
@@ -1375,23 +1385,23 @@
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="1:15" ht="18.75" thickBot="1">
+    <row r="5" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
-      <c r="E5" s="90" t="s">
+      <c r="E5" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="92"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="90"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
     </row>
-    <row r="6" spans="1:15" ht="30.75" thickTop="1">
+    <row r="6" spans="1:15" ht="28.5" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
@@ -1405,10 +1415,10 @@
       <c r="E6" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="95" t="s">
+      <c r="F6" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="96"/>
+      <c r="G6" s="94"/>
       <c r="H6" s="15" t="s">
         <v>2</v>
       </c>
@@ -1421,7 +1431,7 @@
       <c r="N6" s="43"/>
       <c r="O6" s="44"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="71" t="s">
         <v>53</v>
       </c>
@@ -1436,10 +1446,10 @@
         <f>IF(C7="","",C7-B7)</f>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="F7" s="75" t="s">
+      <c r="F7" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="75"/>
+      <c r="G7" s="72"/>
       <c r="H7" s="4"/>
       <c r="J7" s="45" t="s">
         <v>46</v>
@@ -1450,17 +1460,23 @@
       <c r="N7" s="46"/>
       <c r="O7" s="48"/>
     </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="D8" s="18"/>
-      <c r="E8" s="19" t="str">
+      <c r="E8" s="19">
         <f t="shared" ref="E8:E39" si="0">IF(C8="","",C8-B8)</f>
-        <v/>
-      </c>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
       <c r="H8" s="4"/>
       <c r="J8" s="45" t="s">
         <v>45</v>
@@ -1471,7 +1487,7 @@
       <c r="N8" s="46"/>
       <c r="O8" s="48"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1480,8 +1496,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
       <c r="H9" s="4"/>
       <c r="J9" s="45" t="s">
         <v>48</v>
@@ -1492,7 +1508,7 @@
       <c r="N9" s="46"/>
       <c r="O9" s="48"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1501,8 +1517,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
       <c r="H10" s="4"/>
       <c r="J10" s="45" t="s">
         <v>49</v>
@@ -1513,7 +1529,7 @@
       <c r="N10" s="46"/>
       <c r="O10" s="48"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1">
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1522,8 +1538,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
       <c r="H11" s="4"/>
       <c r="J11" s="45"/>
       <c r="K11" s="46"/>
@@ -1536,7 +1552,7 @@
       <c r="N11" s="46"/>
       <c r="O11" s="48"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1545,11 +1561,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
       <c r="H12" s="4"/>
       <c r="J12" s="45"/>
-      <c r="K12" s="72" t="s">
+      <c r="K12" s="95" t="s">
         <v>22</v>
       </c>
       <c r="L12" s="57"/>
@@ -1562,7 +1578,7 @@
       </c>
       <c r="O12" s="48"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1571,11 +1587,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
       <c r="H13" s="4"/>
       <c r="J13" s="45"/>
-      <c r="K13" s="73"/>
+      <c r="K13" s="96"/>
       <c r="L13" s="60">
         <v>40</v>
       </c>
@@ -1588,7 +1604,7 @@
       </c>
       <c r="O13" s="48"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" thickBot="1">
+    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1597,8 +1613,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
       <c r="H14" s="4"/>
       <c r="J14" s="45"/>
       <c r="K14" s="63" t="s">
@@ -1617,7 +1633,7 @@
       </c>
       <c r="O14" s="48"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1626,17 +1642,17 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
       <c r="H15" s="4"/>
       <c r="J15" s="27"/>
       <c r="K15" s="24"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="74"/>
+      <c r="L15" s="97"/>
+      <c r="M15" s="97"/>
       <c r="N15" s="24"/>
       <c r="O15" s="48"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1645,8 +1661,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
       <c r="H16" s="4"/>
       <c r="J16" s="27">
         <v>365</v>
@@ -1659,7 +1675,7 @@
       <c r="N16" s="24"/>
       <c r="O16" s="48"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1668,8 +1684,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
       <c r="H17" s="4"/>
       <c r="J17" s="27">
         <v>-52</v>
@@ -1682,7 +1698,7 @@
       <c r="N17" s="24"/>
       <c r="O17" s="48"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1691,8 +1707,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
       <c r="H18" s="4"/>
       <c r="J18" s="27">
         <v>-52</v>
@@ -1705,7 +1721,7 @@
       <c r="N18" s="24"/>
       <c r="O18" s="48"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1714,8 +1730,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
       <c r="H19" s="4"/>
       <c r="J19" s="27">
         <v>-9</v>
@@ -1728,7 +1744,7 @@
       <c r="N19" s="24"/>
       <c r="O19" s="48"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1737,8 +1753,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
       <c r="H20" s="4"/>
       <c r="J20" s="28">
         <f>SUM(J16:J19)</f>
@@ -1760,7 +1776,7 @@
       </c>
       <c r="O20" s="48"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1769,8 +1785,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
       <c r="H21" s="4"/>
       <c r="J21" s="27">
         <v>-30</v>
@@ -1791,14 +1807,14 @@
       </c>
       <c r="O21" s="48"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="18"/>
       <c r="E22" s="19"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
       <c r="H22" s="4"/>
       <c r="J22" s="32">
         <f>J21/J20*(-1)</f>
@@ -1818,7 +1834,7 @@
       <c r="N22" s="30"/>
       <c r="O22" s="48"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1827,8 +1843,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
       <c r="H23" s="4"/>
       <c r="J23" s="28">
         <f>J20+J21</f>
@@ -1850,7 +1866,7 @@
       </c>
       <c r="O23" s="48"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1859,8 +1875,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
       <c r="H24" s="4"/>
       <c r="J24" s="27"/>
       <c r="K24" s="24"/>
@@ -1874,7 +1890,7 @@
       </c>
       <c r="O24" s="35"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1883,8 +1899,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
       <c r="H25" s="4"/>
       <c r="J25" s="27"/>
       <c r="K25" s="24"/>
@@ -1898,7 +1914,7 @@
       </c>
       <c r="O25" s="37"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1907,8 +1923,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
       <c r="H26" s="4"/>
       <c r="J26" s="45"/>
       <c r="K26" s="46"/>
@@ -1917,7 +1933,7 @@
       <c r="N26" s="46"/>
       <c r="O26" s="48"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1926,8 +1942,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
       <c r="H27" s="4"/>
       <c r="J27" s="45"/>
       <c r="K27" s="50" t="s">
@@ -1938,7 +1954,7 @@
       <c r="N27" s="46"/>
       <c r="O27" s="48"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1947,8 +1963,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
       <c r="H28" s="4"/>
       <c r="J28" s="45"/>
       <c r="K28" s="46" t="s">
@@ -1964,7 +1980,7 @@
       <c r="N28" s="46"/>
       <c r="O28" s="48"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1973,8 +1989,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
       <c r="H29" s="4"/>
       <c r="J29" s="45"/>
       <c r="K29" s="46" t="s">
@@ -1990,7 +2006,7 @@
       </c>
       <c r="O29" s="48"/>
     </row>
-    <row r="30" spans="1:15" ht="15.75" thickBot="1">
+    <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1999,8 +2015,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
       <c r="H30" s="4"/>
       <c r="J30" s="53"/>
       <c r="K30" s="54" t="s">
@@ -2016,7 +2032,7 @@
       </c>
       <c r="O30" s="56"/>
     </row>
-    <row r="31" spans="1:15" ht="15.75" thickTop="1">
+    <row r="31" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2025,11 +2041,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2038,11 +2054,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -2051,11 +2067,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2064,11 +2080,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2077,11 +2093,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F35" s="75"/>
-      <c r="G35" s="75"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2090,11 +2106,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2103,11 +2119,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F37" s="75"/>
-      <c r="G37" s="75"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2116,11 +2132,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2129,66 +2145,66 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="76"/>
-      <c r="B40" s="76"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="76"/>
-      <c r="E40" s="99">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" s="98"/>
+      <c r="B40" s="98"/>
+      <c r="C40" s="98"/>
+      <c r="D40" s="98"/>
+      <c r="E40" s="75">
         <f>SUM(E7:E39)</f>
-        <v>4.1666666666666741E-2</v>
-      </c>
-      <c r="F40" s="102" t="s">
+        <v>0.14583333333333337</v>
+      </c>
+      <c r="F40" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="G40" s="103"/>
+      <c r="G40" s="79"/>
       <c r="H40" s="20">
         <f>M12</f>
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="76"/>
-      <c r="B41" s="76"/>
-      <c r="C41" s="76"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="100"/>
-      <c r="F41" s="102" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" s="98"/>
+      <c r="B41" s="98"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="98"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="G41" s="103"/>
+      <c r="G41" s="79"/>
       <c r="H41" s="20">
         <f>H40-H42</f>
         <v>1.8000000000000007</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.75">
-      <c r="A42" s="76"/>
-      <c r="B42" s="76"/>
-      <c r="C42" s="76"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="101"/>
-      <c r="F42" s="97" t="s">
+    <row r="42" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="98"/>
+      <c r="B42" s="98"/>
+      <c r="C42" s="98"/>
+      <c r="D42" s="98"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="G42" s="98"/>
+      <c r="G42" s="74"/>
       <c r="H42" s="41">
         <f>M24</f>
         <v>13.2</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="76"/>
-      <c r="B43" s="76"/>
-      <c r="C43" s="76"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="79">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" s="98"/>
+      <c r="B43" s="98"/>
+      <c r="C43" s="98"/>
+      <c r="D43" s="98"/>
+      <c r="E43" s="101">
         <f>(E40*60*24)/60</f>
-        <v>1.0000000000000018</v>
+        <v>3.5000000000000009</v>
       </c>
       <c r="F43" s="21" t="s">
         <v>38</v>
@@ -2202,39 +2218,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.75">
-      <c r="A44" s="76"/>
-      <c r="B44" s="76"/>
-      <c r="C44" s="76"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="77" t="s">
+    <row r="44" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="98"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="98"/>
+      <c r="E44" s="102"/>
+      <c r="F44" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="G44" s="78"/>
+      <c r="G44" s="100"/>
       <c r="H44" s="41">
         <f>E43+H43</f>
-        <v>1.0000000000000018</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="12" customHeight="1">
-      <c r="A45" s="76"/>
-      <c r="B45" s="76"/>
-      <c r="C45" s="76"/>
-      <c r="D45" s="76"/>
-      <c r="E45" s="81"/>
-      <c r="F45" s="77" t="s">
+        <v>3.5000000000000009</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="98"/>
+      <c r="B45" s="98"/>
+      <c r="C45" s="98"/>
+      <c r="D45" s="98"/>
+      <c r="E45" s="103"/>
+      <c r="F45" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="G45" s="78"/>
+      <c r="G45" s="100"/>
       <c r="H45" s="41">
         <f>H44-H42</f>
-        <v>-12.199999999999998</v>
+        <v>-9.6999999999999993</v>
       </c>
       <c r="I45" s="23"/>
       <c r="J45" s="23"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="24"/>
       <c r="B46" s="24"/>
       <c r="C46" s="24"/>
@@ -2244,7 +2260,7 @@
       <c r="G46" s="24"/>
       <c r="H46" s="24"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="24"/>
       <c r="B47" s="24"/>
       <c r="C47" s="24"/>
@@ -2254,7 +2270,7 @@
       <c r="G47" s="24"/>
       <c r="H47" s="24"/>
     </row>
-    <row r="48" spans="1:10" ht="18">
+    <row r="48" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A48" s="24"/>
       <c r="B48" s="24"/>
       <c r="D48" s="25" t="s">
@@ -2267,7 +2283,7 @@
       <c r="G48" s="26"/>
       <c r="H48" s="24"/>
     </row>
-    <row r="49" spans="1:8" ht="5.25" customHeight="1">
+    <row r="49" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="24"/>
       <c r="B49" s="24"/>
       <c r="D49" s="25"/>
@@ -2276,7 +2292,7 @@
       <c r="G49" s="26"/>
       <c r="H49" s="24"/>
     </row>
-    <row r="50" spans="1:8" ht="18">
+    <row r="50" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A50" s="24"/>
       <c r="B50" s="24"/>
       <c r="C50" s="24"/>
@@ -2290,7 +2306,7 @@
       <c r="G50" s="26"/>
       <c r="H50" s="24"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="24"/>
       <c r="B51" s="24"/>
       <c r="C51" s="24"/>
@@ -2300,7 +2316,7 @@
       <c r="G51" s="24"/>
       <c r="H51" s="24"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="24"/>
       <c r="B52" s="24"/>
       <c r="C52" s="24"/>
@@ -2310,7 +2326,7 @@
       <c r="G52" s="24"/>
       <c r="H52" s="24"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="24"/>
       <c r="B53" s="24"/>
       <c r="C53" s="24"/>
@@ -2323,39 +2339,6 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="49">
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F9:G9"/>
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="F26:G26"/>
@@ -2372,6 +2355,39 @@
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="E43:E45"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="98" orientation="portrait" r:id="rId1"/>

--- a/03_time_report/Stundenzettel_Hiwis_Nazareth_2506.xlsx
+++ b/03_time_report/Stundenzettel_Hiwis_Nazareth_2506.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\Terril\Arduino Script\Arduino\03_time_report\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12710"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12705"/>
   </bookViews>
   <sheets>
     <sheet name="Hiwi-Stundenzettel" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Hiwi-Stundenzettel'!$A$1:$H$50</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
   <si>
     <t>Datum</t>
   </si>
@@ -288,17 +283,23 @@
   <si>
     <t>05.06.2025</t>
   </si>
+  <si>
+    <t>16.06.2025</t>
+  </si>
+  <si>
+    <t>Laptop to ESP32 Bluetooth</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[hh]:mm"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -897,26 +898,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -964,37 +975,27 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1052,7 +1053,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1084,10 +1085,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1119,7 +1119,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1295,48 +1294,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:G10"/>
+      <selection activeCell="F23" sqref="F23:G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" style="6" customWidth="1"/>
-    <col min="2" max="3" width="10.1796875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="1.1796875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="23.26953125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="10.26953125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="15.26953125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="11.54296875" style="6"/>
-    <col min="10" max="10" width="11.54296875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="23.54296875" style="6" customWidth="1"/>
-    <col min="12" max="14" width="11.54296875" style="6"/>
+    <col min="1" max="1" width="9.85546875" style="6" customWidth="1"/>
+    <col min="2" max="3" width="10.140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="1.140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="6"/>
+    <col min="10" max="10" width="11.5703125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" style="6" customWidth="1"/>
+    <col min="12" max="14" width="11.5703125" style="6"/>
     <col min="15" max="15" width="23" style="6" customWidth="1"/>
-    <col min="16" max="16384" width="11.54296875" style="6"/>
+    <col min="16" max="16384" width="11.5703125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:15" ht="21.75">
+      <c r="A1" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="82"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="84"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:15" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="6.75" customHeight="1">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -1346,35 +1345,35 @@
       <c r="G2" s="8"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" ht="18">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87"/>
       <c r="F3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="86" t="s">
+      <c r="G3" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="87"/>
+      <c r="H3" s="89"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
     </row>
-    <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" ht="18">
       <c r="A4" s="10"/>
       <c r="B4" s="13"/>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
       <c r="G4" s="40">
         <v>15</v>
       </c>
@@ -1385,23 +1384,23 @@
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" ht="18.75" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="90"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="92"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
     </row>
-    <row r="6" spans="1:15" ht="28.5" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="30.75" thickTop="1">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
@@ -1415,10 +1414,10 @@
       <c r="E6" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="93" t="s">
+      <c r="F6" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="94"/>
+      <c r="G6" s="96"/>
       <c r="H6" s="15" t="s">
         <v>2</v>
       </c>
@@ -1431,7 +1430,7 @@
       <c r="N6" s="43"/>
       <c r="O6" s="44"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15">
       <c r="A7" s="71" t="s">
         <v>53</v>
       </c>
@@ -1446,10 +1445,10 @@
         <f>IF(C7="","",C7-B7)</f>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="F7" s="72" t="s">
+      <c r="F7" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="72"/>
+      <c r="G7" s="75"/>
       <c r="H7" s="4"/>
       <c r="J7" s="45" t="s">
         <v>46</v>
@@ -1460,7 +1459,7 @@
       <c r="N7" s="46"/>
       <c r="O7" s="48"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
         <v>55</v>
       </c>
@@ -1475,8 +1474,10 @@
         <f t="shared" ref="E8:E39" si="0">IF(C8="","",C8-B8)</f>
         <v>0.10416666666666663</v>
       </c>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
+      <c r="F8" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="75"/>
       <c r="H8" s="4"/>
       <c r="J8" s="45" t="s">
         <v>45</v>
@@ -1487,17 +1488,25 @@
       <c r="N8" s="46"/>
       <c r="O8" s="48"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.85416666666666663</v>
+      </c>
       <c r="D9" s="18"/>
-      <c r="E9" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
+      <c r="E9" s="19">
+        <f t="shared" si="0"/>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="F9" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="75"/>
       <c r="H9" s="4"/>
       <c r="J9" s="45" t="s">
         <v>48</v>
@@ -1508,7 +1517,7 @@
       <c r="N9" s="46"/>
       <c r="O9" s="48"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1517,8 +1526,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
       <c r="H10" s="4"/>
       <c r="J10" s="45" t="s">
         <v>49</v>
@@ -1529,7 +1538,7 @@
       <c r="N10" s="46"/>
       <c r="O10" s="48"/>
     </row>
-    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" ht="15.75" thickBot="1">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1538,8 +1547,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
       <c r="H11" s="4"/>
       <c r="J11" s="45"/>
       <c r="K11" s="46"/>
@@ -1552,7 +1561,7 @@
       <c r="N11" s="46"/>
       <c r="O11" s="48"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1561,11 +1570,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
       <c r="H12" s="4"/>
       <c r="J12" s="45"/>
-      <c r="K12" s="95" t="s">
+      <c r="K12" s="72" t="s">
         <v>22</v>
       </c>
       <c r="L12" s="57"/>
@@ -1578,7 +1587,7 @@
       </c>
       <c r="O12" s="48"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1587,11 +1596,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
       <c r="H13" s="4"/>
       <c r="J13" s="45"/>
-      <c r="K13" s="96"/>
+      <c r="K13" s="73"/>
       <c r="L13" s="60">
         <v>40</v>
       </c>
@@ -1604,7 +1613,7 @@
       </c>
       <c r="O13" s="48"/>
     </row>
-    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" ht="15.75" thickBot="1">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1613,8 +1622,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
       <c r="H14" s="4"/>
       <c r="J14" s="45"/>
       <c r="K14" s="63" t="s">
@@ -1633,7 +1642,7 @@
       </c>
       <c r="O14" s="48"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1642,17 +1651,17 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
       <c r="H15" s="4"/>
       <c r="J15" s="27"/>
       <c r="K15" s="24"/>
-      <c r="L15" s="97"/>
-      <c r="M15" s="97"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
       <c r="N15" s="24"/>
       <c r="O15" s="48"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1661,8 +1670,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
       <c r="H16" s="4"/>
       <c r="J16" s="27">
         <v>365</v>
@@ -1675,7 +1684,7 @@
       <c r="N16" s="24"/>
       <c r="O16" s="48"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1684,8 +1693,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
       <c r="H17" s="4"/>
       <c r="J17" s="27">
         <v>-52</v>
@@ -1698,7 +1707,7 @@
       <c r="N17" s="24"/>
       <c r="O17" s="48"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1707,8 +1716,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
       <c r="H18" s="4"/>
       <c r="J18" s="27">
         <v>-52</v>
@@ -1721,7 +1730,7 @@
       <c r="N18" s="24"/>
       <c r="O18" s="48"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1730,8 +1739,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
       <c r="H19" s="4"/>
       <c r="J19" s="27">
         <v>-9</v>
@@ -1744,7 +1753,7 @@
       <c r="N19" s="24"/>
       <c r="O19" s="48"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1753,8 +1762,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
       <c r="H20" s="4"/>
       <c r="J20" s="28">
         <f>SUM(J16:J19)</f>
@@ -1776,7 +1785,7 @@
       </c>
       <c r="O20" s="48"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1785,8 +1794,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
       <c r="H21" s="4"/>
       <c r="J21" s="27">
         <v>-30</v>
@@ -1807,14 +1816,14 @@
       </c>
       <c r="O21" s="48"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="18"/>
       <c r="E22" s="19"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
       <c r="H22" s="4"/>
       <c r="J22" s="32">
         <f>J21/J20*(-1)</f>
@@ -1834,7 +1843,7 @@
       <c r="N22" s="30"/>
       <c r="O22" s="48"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1843,8 +1852,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
       <c r="H23" s="4"/>
       <c r="J23" s="28">
         <f>J20+J21</f>
@@ -1866,7 +1875,7 @@
       </c>
       <c r="O23" s="48"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1875,8 +1884,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
       <c r="H24" s="4"/>
       <c r="J24" s="27"/>
       <c r="K24" s="24"/>
@@ -1890,7 +1899,7 @@
       </c>
       <c r="O24" s="35"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1899,8 +1908,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
       <c r="H25" s="4"/>
       <c r="J25" s="27"/>
       <c r="K25" s="24"/>
@@ -1914,7 +1923,7 @@
       </c>
       <c r="O25" s="37"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1923,8 +1932,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
       <c r="H26" s="4"/>
       <c r="J26" s="45"/>
       <c r="K26" s="46"/>
@@ -1933,7 +1942,7 @@
       <c r="N26" s="46"/>
       <c r="O26" s="48"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1942,8 +1951,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
       <c r="H27" s="4"/>
       <c r="J27" s="45"/>
       <c r="K27" s="50" t="s">
@@ -1954,7 +1963,7 @@
       <c r="N27" s="46"/>
       <c r="O27" s="48"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1963,8 +1972,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
       <c r="H28" s="4"/>
       <c r="J28" s="45"/>
       <c r="K28" s="46" t="s">
@@ -1980,7 +1989,7 @@
       <c r="N28" s="46"/>
       <c r="O28" s="48"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1989,8 +1998,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
       <c r="H29" s="4"/>
       <c r="J29" s="45"/>
       <c r="K29" s="46" t="s">
@@ -2006,7 +2015,7 @@
       </c>
       <c r="O29" s="48"/>
     </row>
-    <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" ht="15.75" thickBot="1">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2015,8 +2024,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
       <c r="H30" s="4"/>
       <c r="J30" s="53"/>
       <c r="K30" s="54" t="s">
@@ -2032,7 +2041,7 @@
       </c>
       <c r="O30" s="56"/>
     </row>
-    <row r="31" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" ht="15.75" thickTop="1">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2041,11 +2050,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2054,11 +2063,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -2067,11 +2076,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2080,11 +2089,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2093,11 +2102,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2106,11 +2115,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2119,11 +2128,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2132,11 +2141,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F38" s="72"/>
-      <c r="G38" s="72"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2145,66 +2154,66 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="98"/>
-      <c r="B40" s="98"/>
-      <c r="C40" s="98"/>
-      <c r="D40" s="98"/>
-      <c r="E40" s="75">
+    <row r="40" spans="1:10">
+      <c r="A40" s="76"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="99">
         <f>SUM(E7:E39)</f>
-        <v>0.14583333333333337</v>
-      </c>
-      <c r="F40" s="78" t="s">
+        <v>0.25</v>
+      </c>
+      <c r="F40" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="G40" s="79"/>
+      <c r="G40" s="103"/>
       <c r="H40" s="20">
         <f>M12</f>
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41" s="98"/>
-      <c r="B41" s="98"/>
-      <c r="C41" s="98"/>
-      <c r="D41" s="98"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="78" t="s">
+    <row r="41" spans="1:10">
+      <c r="A41" s="76"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="G41" s="79"/>
+      <c r="G41" s="103"/>
       <c r="H41" s="20">
         <f>H40-H42</f>
         <v>1.8000000000000007</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="98"/>
-      <c r="B42" s="98"/>
-      <c r="C42" s="98"/>
-      <c r="D42" s="98"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="73" t="s">
+    <row r="42" spans="1:10" ht="15.75">
+      <c r="A42" s="76"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="101"/>
+      <c r="F42" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="G42" s="74"/>
+      <c r="G42" s="98"/>
       <c r="H42" s="41">
         <f>M24</f>
         <v>13.2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" s="98"/>
-      <c r="B43" s="98"/>
-      <c r="C43" s="98"/>
-      <c r="D43" s="98"/>
-      <c r="E43" s="101">
+    <row r="43" spans="1:10">
+      <c r="A43" s="76"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="79">
         <f>(E40*60*24)/60</f>
-        <v>3.5000000000000009</v>
+        <v>6</v>
       </c>
       <c r="F43" s="21" t="s">
         <v>38</v>
@@ -2218,39 +2227,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="98"/>
-      <c r="B44" s="98"/>
-      <c r="C44" s="98"/>
-      <c r="D44" s="98"/>
-      <c r="E44" s="102"/>
-      <c r="F44" s="99" t="s">
+    <row r="44" spans="1:10" ht="15.75">
+      <c r="A44" s="76"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="G44" s="100"/>
+      <c r="G44" s="78"/>
       <c r="H44" s="41">
         <f>E43+H43</f>
-        <v>3.5000000000000009</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="98"/>
-      <c r="B45" s="98"/>
-      <c r="C45" s="98"/>
-      <c r="D45" s="98"/>
-      <c r="E45" s="103"/>
-      <c r="F45" s="99" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="12" customHeight="1">
+      <c r="A45" s="76"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="81"/>
+      <c r="F45" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="G45" s="100"/>
+      <c r="G45" s="78"/>
       <c r="H45" s="41">
         <f>H44-H42</f>
-        <v>-9.6999999999999993</v>
+        <v>-7.1999999999999993</v>
       </c>
       <c r="I45" s="23"/>
       <c r="J45" s="23"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10">
       <c r="A46" s="24"/>
       <c r="B46" s="24"/>
       <c r="C46" s="24"/>
@@ -2260,7 +2269,7 @@
       <c r="G46" s="24"/>
       <c r="H46" s="24"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10">
       <c r="A47" s="24"/>
       <c r="B47" s="24"/>
       <c r="C47" s="24"/>
@@ -2270,7 +2279,7 @@
       <c r="G47" s="24"/>
       <c r="H47" s="24"/>
     </row>
-    <row r="48" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10" ht="18">
       <c r="A48" s="24"/>
       <c r="B48" s="24"/>
       <c r="D48" s="25" t="s">
@@ -2283,7 +2292,7 @@
       <c r="G48" s="26"/>
       <c r="H48" s="24"/>
     </row>
-    <row r="49" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" ht="5.25" customHeight="1">
       <c r="A49" s="24"/>
       <c r="B49" s="24"/>
       <c r="D49" s="25"/>
@@ -2292,7 +2301,7 @@
       <c r="G49" s="26"/>
       <c r="H49" s="24"/>
     </row>
-    <row r="50" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" ht="18">
       <c r="A50" s="24"/>
       <c r="B50" s="24"/>
       <c r="C50" s="24"/>
@@ -2306,7 +2315,7 @@
       <c r="G50" s="26"/>
       <c r="H50" s="24"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8">
       <c r="A51" s="24"/>
       <c r="B51" s="24"/>
       <c r="C51" s="24"/>
@@ -2316,7 +2325,7 @@
       <c r="G51" s="24"/>
       <c r="H51" s="24"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8">
       <c r="A52" s="24"/>
       <c r="B52" s="24"/>
       <c r="C52" s="24"/>
@@ -2326,7 +2335,7 @@
       <c r="G52" s="24"/>
       <c r="H52" s="24"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8">
       <c r="A53" s="24"/>
       <c r="B53" s="24"/>
       <c r="C53" s="24"/>
@@ -2339,6 +2348,39 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="49">
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F9:G9"/>
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="F26:G26"/>
@@ -2355,39 +2397,6 @@
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="E43:E45"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="98" orientation="portrait" r:id="rId1"/>

--- a/03_time_report/Stundenzettel_Hiwis_Nazareth_2506.xlsx
+++ b/03_time_report/Stundenzettel_Hiwis_Nazareth_2506.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
   <si>
     <t>Datum</t>
   </si>
@@ -288,6 +288,9 @@
   </si>
   <si>
     <t>Laptop to ESP32 Bluetooth</t>
+  </si>
+  <si>
+    <t>17.06.2025</t>
   </si>
 </sst>
 </file>
@@ -898,36 +901,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -975,23 +968,33 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1301,7 +1304,7 @@
   <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23:G23"/>
+      <selection activeCell="F19" sqref="F19:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -1322,16 +1325,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21.75">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="84"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="82"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
@@ -1349,31 +1352,31 @@
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="85"/>
       <c r="F3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="88" t="s">
+      <c r="G3" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="89"/>
+      <c r="H3" s="87"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:15" ht="18">
       <c r="A4" s="10"/>
       <c r="B4" s="13"/>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
       <c r="G4" s="40">
         <v>15</v>
       </c>
@@ -1391,12 +1394,12 @@
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
-      <c r="E5" s="90" t="s">
+      <c r="E5" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="92"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="90"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
     </row>
@@ -1414,10 +1417,10 @@
       <c r="E6" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="95" t="s">
+      <c r="F6" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="96"/>
+      <c r="G6" s="94"/>
       <c r="H6" s="15" t="s">
         <v>2</v>
       </c>
@@ -1445,10 +1448,10 @@
         <f>IF(C7="","",C7-B7)</f>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="F7" s="75" t="s">
+      <c r="F7" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="75"/>
+      <c r="G7" s="72"/>
       <c r="H7" s="4"/>
       <c r="J7" s="45" t="s">
         <v>46</v>
@@ -1474,10 +1477,10 @@
         <f t="shared" ref="E8:E39" si="0">IF(C8="","",C8-B8)</f>
         <v>0.10416666666666663</v>
       </c>
-      <c r="F8" s="75" t="s">
+      <c r="F8" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="75"/>
+      <c r="G8" s="72"/>
       <c r="H8" s="4"/>
       <c r="J8" s="45" t="s">
         <v>45</v>
@@ -1503,10 +1506,10 @@
         <f t="shared" si="0"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="F9" s="75" t="s">
+      <c r="F9" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="75"/>
+      <c r="G9" s="72"/>
       <c r="H9" s="4"/>
       <c r="J9" s="45" t="s">
         <v>48</v>
@@ -1518,16 +1521,22 @@
       <c r="O9" s="48"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.85416666666666663</v>
+      </c>
       <c r="D10" s="18"/>
-      <c r="E10" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
+      <c r="E10" s="19">
+        <f t="shared" si="0"/>
+        <v>0.1875</v>
+      </c>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
       <c r="H10" s="4"/>
       <c r="J10" s="45" t="s">
         <v>49</v>
@@ -1547,8 +1556,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
       <c r="H11" s="4"/>
       <c r="J11" s="45"/>
       <c r="K11" s="46"/>
@@ -1570,11 +1579,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
       <c r="H12" s="4"/>
       <c r="J12" s="45"/>
-      <c r="K12" s="72" t="s">
+      <c r="K12" s="95" t="s">
         <v>22</v>
       </c>
       <c r="L12" s="57"/>
@@ -1596,11 +1605,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
       <c r="H13" s="4"/>
       <c r="J13" s="45"/>
-      <c r="K13" s="73"/>
+      <c r="K13" s="96"/>
       <c r="L13" s="60">
         <v>40</v>
       </c>
@@ -1622,8 +1631,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
       <c r="H14" s="4"/>
       <c r="J14" s="45"/>
       <c r="K14" s="63" t="s">
@@ -1651,13 +1660,13 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
       <c r="H15" s="4"/>
       <c r="J15" s="27"/>
       <c r="K15" s="24"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="74"/>
+      <c r="L15" s="97"/>
+      <c r="M15" s="97"/>
       <c r="N15" s="24"/>
       <c r="O15" s="48"/>
     </row>
@@ -1670,8 +1679,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
       <c r="H16" s="4"/>
       <c r="J16" s="27">
         <v>365</v>
@@ -1693,8 +1702,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
       <c r="H17" s="4"/>
       <c r="J17" s="27">
         <v>-52</v>
@@ -1716,8 +1725,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
       <c r="H18" s="4"/>
       <c r="J18" s="27">
         <v>-52</v>
@@ -1739,8 +1748,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
       <c r="H19" s="4"/>
       <c r="J19" s="27">
         <v>-9</v>
@@ -1762,8 +1771,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
       <c r="H20" s="4"/>
       <c r="J20" s="28">
         <f>SUM(J16:J19)</f>
@@ -1794,8 +1803,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
       <c r="H21" s="4"/>
       <c r="J21" s="27">
         <v>-30</v>
@@ -1822,8 +1831,8 @@
       <c r="C22" s="3"/>
       <c r="D22" s="18"/>
       <c r="E22" s="19"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
       <c r="H22" s="4"/>
       <c r="J22" s="32">
         <f>J21/J20*(-1)</f>
@@ -1852,8 +1861,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
       <c r="H23" s="4"/>
       <c r="J23" s="28">
         <f>J20+J21</f>
@@ -1884,8 +1893,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
       <c r="H24" s="4"/>
       <c r="J24" s="27"/>
       <c r="K24" s="24"/>
@@ -1908,8 +1917,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
       <c r="H25" s="4"/>
       <c r="J25" s="27"/>
       <c r="K25" s="24"/>
@@ -1932,8 +1941,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
       <c r="H26" s="4"/>
       <c r="J26" s="45"/>
       <c r="K26" s="46"/>
@@ -1951,8 +1960,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
       <c r="H27" s="4"/>
       <c r="J27" s="45"/>
       <c r="K27" s="50" t="s">
@@ -1972,8 +1981,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
       <c r="H28" s="4"/>
       <c r="J28" s="45"/>
       <c r="K28" s="46" t="s">
@@ -1998,8 +2007,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
       <c r="H29" s="4"/>
       <c r="J29" s="45"/>
       <c r="K29" s="46" t="s">
@@ -2024,8 +2033,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
       <c r="H30" s="4"/>
       <c r="J30" s="53"/>
       <c r="K30" s="54" t="s">
@@ -2050,8 +2059,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
       <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:15">
@@ -2063,8 +2072,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:10">
@@ -2076,8 +2085,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
       <c r="H33" s="4"/>
     </row>
     <row r="34" spans="1:10">
@@ -2089,8 +2098,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
       <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:10">
@@ -2102,8 +2111,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F35" s="75"/>
-      <c r="G35" s="75"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
       <c r="H35" s="4"/>
     </row>
     <row r="36" spans="1:10">
@@ -2115,8 +2124,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
       <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:10">
@@ -2128,8 +2137,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F37" s="75"/>
-      <c r="G37" s="75"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:10">
@@ -2141,8 +2150,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
       <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:10">
@@ -2154,66 +2163,66 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
       <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="76"/>
-      <c r="B40" s="76"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="76"/>
-      <c r="E40" s="99">
+      <c r="A40" s="98"/>
+      <c r="B40" s="98"/>
+      <c r="C40" s="98"/>
+      <c r="D40" s="98"/>
+      <c r="E40" s="75">
         <f>SUM(E7:E39)</f>
-        <v>0.25</v>
-      </c>
-      <c r="F40" s="102" t="s">
+        <v>0.4375</v>
+      </c>
+      <c r="F40" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="G40" s="103"/>
+      <c r="G40" s="79"/>
       <c r="H40" s="20">
         <f>M12</f>
         <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="76"/>
-      <c r="B41" s="76"/>
-      <c r="C41" s="76"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="100"/>
-      <c r="F41" s="102" t="s">
+      <c r="A41" s="98"/>
+      <c r="B41" s="98"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="98"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="G41" s="103"/>
+      <c r="G41" s="79"/>
       <c r="H41" s="20">
         <f>H40-H42</f>
         <v>1.8000000000000007</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75">
-      <c r="A42" s="76"/>
-      <c r="B42" s="76"/>
-      <c r="C42" s="76"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="101"/>
-      <c r="F42" s="97" t="s">
+      <c r="A42" s="98"/>
+      <c r="B42" s="98"/>
+      <c r="C42" s="98"/>
+      <c r="D42" s="98"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="G42" s="98"/>
+      <c r="G42" s="74"/>
       <c r="H42" s="41">
         <f>M24</f>
         <v>13.2</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="76"/>
-      <c r="B43" s="76"/>
-      <c r="C43" s="76"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="79">
+      <c r="A43" s="98"/>
+      <c r="B43" s="98"/>
+      <c r="C43" s="98"/>
+      <c r="D43" s="98"/>
+      <c r="E43" s="101">
         <f>(E40*60*24)/60</f>
-        <v>6</v>
+        <v>10.5</v>
       </c>
       <c r="F43" s="21" t="s">
         <v>38</v>
@@ -2228,33 +2237,33 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75">
-      <c r="A44" s="76"/>
-      <c r="B44" s="76"/>
-      <c r="C44" s="76"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="77" t="s">
+      <c r="A44" s="98"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="98"/>
+      <c r="E44" s="102"/>
+      <c r="F44" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="G44" s="78"/>
+      <c r="G44" s="100"/>
       <c r="H44" s="41">
         <f>E43+H43</f>
-        <v>6</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="12" customHeight="1">
-      <c r="A45" s="76"/>
-      <c r="B45" s="76"/>
-      <c r="C45" s="76"/>
-      <c r="D45" s="76"/>
-      <c r="E45" s="81"/>
-      <c r="F45" s="77" t="s">
+      <c r="A45" s="98"/>
+      <c r="B45" s="98"/>
+      <c r="C45" s="98"/>
+      <c r="D45" s="98"/>
+      <c r="E45" s="103"/>
+      <c r="F45" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="G45" s="78"/>
+      <c r="G45" s="100"/>
       <c r="H45" s="41">
         <f>H44-H42</f>
-        <v>-7.1999999999999993</v>
+        <v>-2.6999999999999993</v>
       </c>
       <c r="I45" s="23"/>
       <c r="J45" s="23"/>
@@ -2348,39 +2357,6 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="49">
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F9:G9"/>
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="F26:G26"/>
@@ -2397,6 +2373,39 @@
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="E43:E45"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="98" orientation="portrait" r:id="rId1"/>

--- a/03_time_report/Stundenzettel_Hiwis_Nazareth_2506.xlsx
+++ b/03_time_report/Stundenzettel_Hiwis_Nazareth_2506.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
   <si>
     <t>Datum</t>
   </si>
@@ -291,6 +291,18 @@
   </si>
   <si>
     <t>17.06.2025</t>
+  </si>
+  <si>
+    <t>Controller GUI design</t>
+  </si>
+  <si>
+    <t>Integration and test</t>
+  </si>
+  <si>
+    <t>23.06.2025</t>
+  </si>
+  <si>
+    <t>Integrate rotation sensor</t>
   </si>
 </sst>
 </file>
@@ -901,26 +913,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -968,33 +990,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1304,7 +1316,7 @@
   <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19:G19"/>
+      <selection activeCell="F14" sqref="F14:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -1325,16 +1337,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21.75">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="82"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="84"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
@@ -1352,31 +1364,31 @@
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87"/>
       <c r="F3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="86" t="s">
+      <c r="G3" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="87"/>
+      <c r="H3" s="89"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:15" ht="18">
       <c r="A4" s="10"/>
       <c r="B4" s="13"/>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
       <c r="G4" s="40">
         <v>15</v>
       </c>
@@ -1394,12 +1406,12 @@
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="90"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="92"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
     </row>
@@ -1417,10 +1429,10 @@
       <c r="E6" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="93" t="s">
+      <c r="F6" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="94"/>
+      <c r="G6" s="96"/>
       <c r="H6" s="15" t="s">
         <v>2</v>
       </c>
@@ -1448,10 +1460,10 @@
         <f>IF(C7="","",C7-B7)</f>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="F7" s="72" t="s">
+      <c r="F7" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="72"/>
+      <c r="G7" s="75"/>
       <c r="H7" s="4"/>
       <c r="J7" s="45" t="s">
         <v>46</v>
@@ -1477,10 +1489,10 @@
         <f t="shared" ref="E8:E39" si="0">IF(C8="","",C8-B8)</f>
         <v>0.10416666666666663</v>
       </c>
-      <c r="F8" s="72" t="s">
+      <c r="F8" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="72"/>
+      <c r="G8" s="75"/>
       <c r="H8" s="4"/>
       <c r="J8" s="45" t="s">
         <v>45</v>
@@ -1506,10 +1518,10 @@
         <f t="shared" si="0"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="F9" s="72" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="72"/>
+      <c r="F9" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="75"/>
       <c r="H9" s="4"/>
       <c r="J9" s="45" t="s">
         <v>48</v>
@@ -1535,8 +1547,10 @@
         <f t="shared" si="0"/>
         <v>0.1875</v>
       </c>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
+      <c r="F10" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="75"/>
       <c r="H10" s="4"/>
       <c r="J10" s="45" t="s">
         <v>49</v>
@@ -1548,16 +1562,24 @@
       <c r="O10" s="48"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="D11" s="18"/>
-      <c r="E11" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
+      <c r="E11" s="19">
+        <f t="shared" si="0"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="F11" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="75"/>
       <c r="H11" s="4"/>
       <c r="J11" s="45"/>
       <c r="K11" s="46"/>
@@ -1579,11 +1601,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
       <c r="H12" s="4"/>
       <c r="J12" s="45"/>
-      <c r="K12" s="95" t="s">
+      <c r="K12" s="72" t="s">
         <v>22</v>
       </c>
       <c r="L12" s="57"/>
@@ -1605,11 +1627,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
       <c r="H13" s="4"/>
       <c r="J13" s="45"/>
-      <c r="K13" s="96"/>
+      <c r="K13" s="73"/>
       <c r="L13" s="60">
         <v>40</v>
       </c>
@@ -1631,8 +1653,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
       <c r="H14" s="4"/>
       <c r="J14" s="45"/>
       <c r="K14" s="63" t="s">
@@ -1660,13 +1682,13 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
       <c r="H15" s="4"/>
       <c r="J15" s="27"/>
       <c r="K15" s="24"/>
-      <c r="L15" s="97"/>
-      <c r="M15" s="97"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
       <c r="N15" s="24"/>
       <c r="O15" s="48"/>
     </row>
@@ -1679,8 +1701,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
       <c r="H16" s="4"/>
       <c r="J16" s="27">
         <v>365</v>
@@ -1702,8 +1724,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
       <c r="H17" s="4"/>
       <c r="J17" s="27">
         <v>-52</v>
@@ -1725,8 +1747,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
       <c r="H18" s="4"/>
       <c r="J18" s="27">
         <v>-52</v>
@@ -1748,8 +1770,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
       <c r="H19" s="4"/>
       <c r="J19" s="27">
         <v>-9</v>
@@ -1771,8 +1793,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
       <c r="H20" s="4"/>
       <c r="J20" s="28">
         <f>SUM(J16:J19)</f>
@@ -1803,8 +1825,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
       <c r="H21" s="4"/>
       <c r="J21" s="27">
         <v>-30</v>
@@ -1831,8 +1853,8 @@
       <c r="C22" s="3"/>
       <c r="D22" s="18"/>
       <c r="E22" s="19"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
       <c r="H22" s="4"/>
       <c r="J22" s="32">
         <f>J21/J20*(-1)</f>
@@ -1861,8 +1883,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
       <c r="H23" s="4"/>
       <c r="J23" s="28">
         <f>J20+J21</f>
@@ -1893,8 +1915,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
       <c r="H24" s="4"/>
       <c r="J24" s="27"/>
       <c r="K24" s="24"/>
@@ -1917,8 +1939,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
       <c r="H25" s="4"/>
       <c r="J25" s="27"/>
       <c r="K25" s="24"/>
@@ -1941,8 +1963,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
       <c r="H26" s="4"/>
       <c r="J26" s="45"/>
       <c r="K26" s="46"/>
@@ -1960,8 +1982,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
       <c r="H27" s="4"/>
       <c r="J27" s="45"/>
       <c r="K27" s="50" t="s">
@@ -1981,8 +2003,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
       <c r="H28" s="4"/>
       <c r="J28" s="45"/>
       <c r="K28" s="46" t="s">
@@ -2007,8 +2029,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
       <c r="H29" s="4"/>
       <c r="J29" s="45"/>
       <c r="K29" s="46" t="s">
@@ -2033,8 +2055,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
       <c r="H30" s="4"/>
       <c r="J30" s="53"/>
       <c r="K30" s="54" t="s">
@@ -2059,8 +2081,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
       <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:15">
@@ -2072,8 +2094,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:10">
@@ -2085,8 +2107,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
       <c r="H33" s="4"/>
     </row>
     <row r="34" spans="1:10">
@@ -2098,8 +2120,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
       <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:10">
@@ -2111,8 +2133,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
       <c r="H35" s="4"/>
     </row>
     <row r="36" spans="1:10">
@@ -2124,8 +2146,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
       <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:10">
@@ -2137,8 +2159,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:10">
@@ -2150,8 +2172,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F38" s="72"/>
-      <c r="G38" s="72"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
       <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:10">
@@ -2163,66 +2185,66 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
       <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="98"/>
-      <c r="B40" s="98"/>
-      <c r="C40" s="98"/>
-      <c r="D40" s="98"/>
-      <c r="E40" s="75">
+      <c r="A40" s="76"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="99">
         <f>SUM(E7:E39)</f>
-        <v>0.4375</v>
-      </c>
-      <c r="F40" s="78" t="s">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F40" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="G40" s="79"/>
+      <c r="G40" s="103"/>
       <c r="H40" s="20">
         <f>M12</f>
         <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="98"/>
-      <c r="B41" s="98"/>
-      <c r="C41" s="98"/>
-      <c r="D41" s="98"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="78" t="s">
+      <c r="A41" s="76"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="G41" s="79"/>
+      <c r="G41" s="103"/>
       <c r="H41" s="20">
         <f>H40-H42</f>
         <v>1.8000000000000007</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75">
-      <c r="A42" s="98"/>
-      <c r="B42" s="98"/>
-      <c r="C42" s="98"/>
-      <c r="D42" s="98"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="73" t="s">
+      <c r="A42" s="76"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="101"/>
+      <c r="F42" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="G42" s="74"/>
+      <c r="G42" s="98"/>
       <c r="H42" s="41">
         <f>M24</f>
         <v>13.2</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="98"/>
-      <c r="B43" s="98"/>
-      <c r="C43" s="98"/>
-      <c r="D43" s="98"/>
-      <c r="E43" s="101">
+      <c r="A43" s="76"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="79">
         <f>(E40*60*24)/60</f>
-        <v>10.5</v>
+        <v>12.500000000000002</v>
       </c>
       <c r="F43" s="21" t="s">
         <v>38</v>
@@ -2237,33 +2259,33 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75">
-      <c r="A44" s="98"/>
-      <c r="B44" s="98"/>
-      <c r="C44" s="98"/>
-      <c r="D44" s="98"/>
-      <c r="E44" s="102"/>
-      <c r="F44" s="99" t="s">
+      <c r="A44" s="76"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="G44" s="100"/>
+      <c r="G44" s="78"/>
       <c r="H44" s="41">
         <f>E43+H43</f>
-        <v>10.5</v>
+        <v>12.500000000000002</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="12" customHeight="1">
-      <c r="A45" s="98"/>
-      <c r="B45" s="98"/>
-      <c r="C45" s="98"/>
-      <c r="D45" s="98"/>
-      <c r="E45" s="103"/>
-      <c r="F45" s="99" t="s">
+      <c r="A45" s="76"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="81"/>
+      <c r="F45" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="G45" s="100"/>
+      <c r="G45" s="78"/>
       <c r="H45" s="41">
         <f>H44-H42</f>
-        <v>-2.6999999999999993</v>
+        <v>-0.69999999999999751</v>
       </c>
       <c r="I45" s="23"/>
       <c r="J45" s="23"/>
@@ -2357,6 +2379,39 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="49">
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F9:G9"/>
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="F26:G26"/>
@@ -2373,39 +2428,6 @@
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="E43:E45"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="98" orientation="portrait" r:id="rId1"/>
